--- a/2022/Realme/Others/Shop wise sales report till  January-2022.xlsx
+++ b/2022/Realme/Others/Shop wise sales report till  January-2022.xlsx
@@ -1235,9 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV60" sqref="CV60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="Q2" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="19">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>7</v>
       </c>
       <c r="Q10" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R10" s="20">
         <v>24</v>
@@ -4754,7 +4754,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R12" s="20">
         <v>22</v>
@@ -5063,7 +5063,7 @@
         <v>62</v>
       </c>
       <c r="Q13" s="20">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R13" s="20">
         <v>40</v>
@@ -6299,7 +6299,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="20">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R17" s="20">
         <v>50</v>
@@ -6917,7 +6917,7 @@
         <v>68</v>
       </c>
       <c r="Q19" s="20">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R19" s="20">
         <v>60</v>
@@ -7535,7 +7535,7 @@
         <v>74</v>
       </c>
       <c r="Q21" s="20">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R21" s="20">
         <v>33</v>
@@ -7844,7 +7844,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R22" s="20">
         <v>35</v>
@@ -8771,7 +8771,7 @@
         <v>29</v>
       </c>
       <c r="Q25" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R25" s="20">
         <v>33</v>
@@ -10308,7 +10308,7 @@
         <v>52</v>
       </c>
       <c r="Q30" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R30" s="20">
         <v>20</v>
@@ -10609,7 +10609,7 @@
         <v>97</v>
       </c>
       <c r="Q31" s="20">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R31" s="20">
         <v>50</v>
@@ -14315,7 +14315,7 @@
         <v>78</v>
       </c>
       <c r="Q43" s="20">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="R43" s="20">
         <v>0</v>
@@ -14622,14 +14622,20 @@
         <v>0</v>
       </c>
       <c r="Q44" s="20">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R44" s="20">
         <v>0</v>
       </c>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
+      <c r="S44" s="20">
+        <v>0</v>
+      </c>
+      <c r="T44" s="20">
+        <v>0</v>
+      </c>
+      <c r="U44" s="20">
+        <v>0</v>
+      </c>
       <c r="V44" s="20">
         <v>0</v>
       </c>
@@ -18015,7 +18021,7 @@
         <v>890</v>
       </c>
       <c r="Q55" s="24">
-        <v>803</v>
+        <v>841</v>
       </c>
       <c r="R55" s="25">
         <f t="shared" si="0"/>

--- a/2022/Realme/Others/Shop wise sales report till  January-2022.xlsx
+++ b/2022/Realme/Others/Shop wise sales report till  January-2022.xlsx
@@ -10,6 +10,7 @@
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$Z$36</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="218">
   <si>
     <t>Area</t>
   </si>
@@ -656,12 +657,30 @@
   <si>
     <t>BD104613</t>
   </si>
+  <si>
+    <t>Itel Sale January</t>
+  </si>
+  <si>
+    <t>Industry Sales Report January'2022</t>
+  </si>
+  <si>
+    <t>46 Lac</t>
+  </si>
+  <si>
+    <t>Total Quantity Sales=</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,8 +736,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +813,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -820,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,6 +968,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,9 +1287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV60" sqref="CV60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22548,7 +22600,7 @@
   <dimension ref="A1:CQ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24830,4 +24882,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="40">
+        <v>867</v>
+      </c>
+      <c r="C2" s="40">
+        <v>620</v>
+      </c>
+      <c r="D2" s="40">
+        <v>780</v>
+      </c>
+      <c r="E2" s="40">
+        <v>375</v>
+      </c>
+      <c r="F2" s="40">
+        <v>740</v>
+      </c>
+      <c r="G2" s="40">
+        <v>355</v>
+      </c>
+      <c r="H2" s="40">
+        <v>420</v>
+      </c>
+      <c r="I2" s="41">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I3" s="40">
+        <v>106</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I4" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>